--- a/Code/Results/Cases/Case_2_70/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_70/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.14193305862797</v>
+        <v>8.908234419588917</v>
       </c>
       <c r="C2">
-        <v>8.19588083781928</v>
+        <v>5.734832280251772</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>26.090203738131</v>
+        <v>24.90221787668539</v>
       </c>
       <c r="F2">
-        <v>33.10805192618408</v>
+        <v>39.0560475493529</v>
       </c>
       <c r="G2">
-        <v>14.63133798375542</v>
+        <v>23.09524334873279</v>
       </c>
       <c r="H2">
-        <v>7.477332455544191</v>
+        <v>13.06200285466351</v>
       </c>
       <c r="I2">
-        <v>10.81129522181463</v>
+        <v>18.51494441848695</v>
       </c>
       <c r="J2">
-        <v>4.297601315967385</v>
+        <v>7.66539702960366</v>
       </c>
       <c r="K2">
-        <v>12.73195803404144</v>
+        <v>8.706436435789486</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.1584973123718</v>
+        <v>19.09416426328727</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.2890611194291</v>
+        <v>8.50461753687941</v>
       </c>
       <c r="C3">
-        <v>7.796909101685529</v>
+        <v>5.547308822190931</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.53048724308338</v>
+        <v>24.54041403265173</v>
       </c>
       <c r="F3">
-        <v>31.6642332142197</v>
+        <v>38.90334412245793</v>
       </c>
       <c r="G3">
-        <v>14.9129439811619</v>
+        <v>23.28705142676716</v>
       </c>
       <c r="H3">
-        <v>7.626931362358961</v>
+        <v>13.12217251779947</v>
       </c>
       <c r="I3">
-        <v>11.14347797969403</v>
+        <v>18.63393722250179</v>
       </c>
       <c r="J3">
-        <v>4.356991662043121</v>
+        <v>7.68836336948521</v>
       </c>
       <c r="K3">
-        <v>12.06099364654425</v>
+        <v>8.378345038566485</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>11.41229632416975</v>
+        <v>19.20928200101305</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.73621399731604</v>
+        <v>8.246790415916285</v>
       </c>
       <c r="C4">
-        <v>7.541270524209937</v>
+        <v>5.428286289247843</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.53569942182767</v>
+        <v>24.3212268511024</v>
       </c>
       <c r="F4">
-        <v>30.77485886213113</v>
+        <v>38.82061667655109</v>
       </c>
       <c r="G4">
-        <v>15.11490227281752</v>
+        <v>23.41345846946988</v>
       </c>
       <c r="H4">
-        <v>7.72298064308451</v>
+        <v>13.16120139738486</v>
       </c>
       <c r="I4">
-        <v>11.3541818025269</v>
+        <v>18.71078442813988</v>
       </c>
       <c r="J4">
-        <v>4.394768773571927</v>
+        <v>7.703234902668191</v>
       </c>
       <c r="K4">
-        <v>11.62899908197434</v>
+        <v>8.168877374069588</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>11.57861442452557</v>
+        <v>19.28425423376626</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.5036303967888</v>
+        <v>8.139333991487408</v>
       </c>
       <c r="C5">
-        <v>7.434493713367536</v>
+        <v>5.378860674170996</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23.12127781813705</v>
+        <v>24.23275944726774</v>
       </c>
       <c r="F5">
-        <v>30.41221640821839</v>
+        <v>38.78970312229546</v>
       </c>
       <c r="G5">
-        <v>15.20396995705354</v>
+        <v>23.46713242661399</v>
       </c>
       <c r="H5">
-        <v>7.763156216946032</v>
+        <v>13.17763093657468</v>
       </c>
       <c r="I5">
-        <v>11.44173769522089</v>
+        <v>18.74305416181851</v>
       </c>
       <c r="J5">
-        <v>4.410495095401636</v>
+        <v>7.709489318918407</v>
       </c>
       <c r="K5">
-        <v>11.44802383331047</v>
+        <v>8.081586531448879</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>11.64890795507548</v>
+        <v>19.31588465906108</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.46457116422297</v>
+        <v>8.121350650040188</v>
       </c>
       <c r="C6">
-        <v>7.416609015847296</v>
+        <v>5.370599503115963</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.05192784345807</v>
+        <v>24.21812417230191</v>
       </c>
       <c r="F6">
-        <v>30.352002802952</v>
+        <v>38.78473960447521</v>
       </c>
       <c r="G6">
-        <v>15.21915334899991</v>
+        <v>23.47617525492986</v>
       </c>
       <c r="H6">
-        <v>7.769889300272631</v>
+        <v>13.18039077873686</v>
       </c>
       <c r="I6">
-        <v>11.456378475633</v>
+        <v>18.7484701993297</v>
       </c>
       <c r="J6">
-        <v>4.413126545951755</v>
+        <v>7.710539600516101</v>
       </c>
       <c r="K6">
-        <v>11.41767841752493</v>
+        <v>8.066978017071582</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>11.66072897599616</v>
+        <v>19.32120201533074</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.73310675567263</v>
+        <v>8.245350716858681</v>
       </c>
       <c r="C7">
-        <v>7.539840912247005</v>
+        <v>5.427623380934434</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.53014652890862</v>
+        <v>24.32003015216562</v>
       </c>
       <c r="F7">
-        <v>30.7699683000343</v>
+        <v>38.82018840539271</v>
       </c>
       <c r="G7">
-        <v>15.11607675037289</v>
+        <v>23.41417359359479</v>
       </c>
       <c r="H7">
-        <v>7.723518299894614</v>
+        <v>13.16142084531343</v>
       </c>
       <c r="I7">
-        <v>11.35535576099869</v>
+        <v>18.71121576410338</v>
       </c>
       <c r="J7">
-        <v>4.394979517722686</v>
+        <v>7.703318465164559</v>
       </c>
       <c r="K7">
-        <v>11.62657821463867</v>
+        <v>8.167707837835314</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>11.57955238142576</v>
+        <v>19.28467644535808</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.8539400968834</v>
+        <v>8.771213727039271</v>
       </c>
       <c r="C8">
-        <v>8.060573233082515</v>
+        <v>5.671010346177006</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>25.56026950233262</v>
+        <v>24.77691852272099</v>
       </c>
       <c r="F8">
-        <v>32.61110172858461</v>
+        <v>39.001121207982</v>
       </c>
       <c r="G8">
-        <v>14.72207203230332</v>
+        <v>23.15958053579977</v>
       </c>
       <c r="H8">
-        <v>7.528030457058545</v>
+        <v>13.08231720426015</v>
       </c>
       <c r="I8">
-        <v>10.92442956265617</v>
+        <v>18.55518877758743</v>
       </c>
       <c r="J8">
-        <v>4.31780822237026</v>
+        <v>7.673156286676074</v>
       </c>
       <c r="K8">
-        <v>12.50481777483793</v>
+        <v>8.595022619645082</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.24375533438091</v>
+        <v>19.13296657346037</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.8192695629853</v>
+        <v>9.718403317534646</v>
       </c>
       <c r="C9">
-        <v>8.994286565995008</v>
+        <v>6.115405494805129</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>29.23775718384845</v>
+        <v>25.69157923777959</v>
       </c>
       <c r="F9">
-        <v>36.17993990042815</v>
+        <v>39.44222561581658</v>
       </c>
       <c r="G9">
-        <v>14.20572618243755</v>
+        <v>22.72928500890836</v>
       </c>
       <c r="H9">
-        <v>7.179035949623824</v>
+        <v>12.94369786071288</v>
       </c>
       <c r="I9">
-        <v>10.1332264616738</v>
+        <v>18.27915844547184</v>
       </c>
       <c r="J9">
-        <v>4.176787782516465</v>
+        <v>7.620096133705443</v>
       </c>
       <c r="K9">
-        <v>14.06488138251415</v>
+        <v>9.366132423431003</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>10.67456098015619</v>
+        <v>18.86949883738896</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>17.12087882469159</v>
+        <v>10.3579522645164</v>
       </c>
       <c r="C10">
-        <v>9.624151891007205</v>
+        <v>6.41941267785513</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>31.74709208699477</v>
+        <v>26.36857484659921</v>
       </c>
       <c r="F10">
-        <v>38.75622045321558</v>
+        <v>39.81698714206543</v>
       </c>
       <c r="G10">
-        <v>14.01993964245294</v>
+        <v>22.45580070434747</v>
       </c>
       <c r="H10">
-        <v>6.945357751570949</v>
+        <v>12.85186323154614</v>
       </c>
       <c r="I10">
-        <v>9.585668220216977</v>
+        <v>18.09447546568441</v>
       </c>
       <c r="J10">
-        <v>4.079350464566227</v>
+        <v>7.584792328307165</v>
       </c>
       <c r="K10">
-        <v>15.10904787084</v>
+        <v>9.888231751830157</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>10.32058368543244</v>
+        <v>18.69667786756109</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.68221528462976</v>
+        <v>10.63584765781438</v>
       </c>
       <c r="C11">
-        <v>9.898128329738395</v>
+        <v>6.552404954102951</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>32.84641302926457</v>
+        <v>26.67630885630599</v>
       </c>
       <c r="F11">
-        <v>39.91540137973841</v>
+        <v>39.99799540779984</v>
       </c>
       <c r="G11">
-        <v>13.98580827007894</v>
+        <v>22.34078541206623</v>
       </c>
       <c r="H11">
-        <v>6.844484771037145</v>
+        <v>12.81224802439765</v>
       </c>
       <c r="I11">
-        <v>9.344275901393839</v>
+        <v>18.01436398930595</v>
       </c>
       <c r="J11">
-        <v>4.03634373516094</v>
+        <v>7.569523950455189</v>
       </c>
       <c r="K11">
-        <v>15.56154898318486</v>
+        <v>10.11548644326757</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>10.17606202682217</v>
+        <v>18.62256417476247</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.89037122578579</v>
+        <v>10.73915092279365</v>
       </c>
       <c r="C12">
-        <v>10.00005113044586</v>
+        <v>6.601973228764582</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>33.25665297074291</v>
+        <v>26.79269787609531</v>
       </c>
       <c r="F12">
-        <v>40.35236193877753</v>
+        <v>40.06800637720949</v>
       </c>
       <c r="G12">
-        <v>13.9808132594179</v>
+        <v>22.29859502985593</v>
       </c>
       <c r="H12">
-        <v>6.807118517139699</v>
+        <v>12.79755677717737</v>
       </c>
       <c r="I12">
-        <v>9.254023095856759</v>
+        <v>17.98458690900094</v>
       </c>
       <c r="J12">
-        <v>4.020246740660135</v>
+        <v>7.563855529519954</v>
       </c>
       <c r="K12">
-        <v>15.72964868916069</v>
+        <v>10.20002594868309</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>10.12395773020353</v>
+        <v>18.59514729739691</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.84573694711302</v>
+        <v>10.716989313589</v>
       </c>
       <c r="C13">
-        <v>9.978181703146721</v>
+        <v>6.591333530709149</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>33.16856877464719</v>
+        <v>26.76763949213143</v>
       </c>
       <c r="F13">
-        <v>40.25834525226624</v>
+        <v>40.05286379000319</v>
       </c>
       <c r="G13">
-        <v>13.98152568791937</v>
+        <v>22.30762064208054</v>
       </c>
       <c r="H13">
-        <v>6.815128087188437</v>
+        <v>12.80070701366897</v>
       </c>
       <c r="I13">
-        <v>9.27340819831775</v>
+        <v>17.99097508278449</v>
       </c>
       <c r="J13">
-        <v>4.023705131189854</v>
+        <v>7.565071289534925</v>
       </c>
       <c r="K13">
-        <v>15.69359025090359</v>
+        <v>10.18188693531667</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>10.13505837604379</v>
+        <v>18.60102316266834</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.69942867293437</v>
+        <v>10.64438543414428</v>
       </c>
       <c r="C14">
-        <v>9.906550271582068</v>
+        <v>6.556499020941773</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>32.88028470082053</v>
+        <v>26.68588773518844</v>
       </c>
       <c r="F14">
-        <v>39.95139106218789</v>
+        <v>40.00372612853665</v>
       </c>
       <c r="G14">
-        <v>13.98523455999312</v>
+        <v>22.33728698605949</v>
       </c>
       <c r="H14">
-        <v>6.841393624024382</v>
+        <v>12.8110331534129</v>
       </c>
       <c r="I14">
-        <v>9.336827206709316</v>
+        <v>18.01190300923689</v>
       </c>
       <c r="J14">
-        <v>4.035015646557157</v>
+        <v>7.569055336169815</v>
       </c>
       <c r="K14">
-        <v>15.57544390190073</v>
+        <v>10.12247218386698</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>10.17172127244913</v>
+        <v>18.62029557267198</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.60923687608779</v>
+        <v>10.59966069303895</v>
       </c>
       <c r="C15">
-        <v>9.862435641917056</v>
+        <v>6.535057760521314</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>32.70291584431421</v>
+        <v>26.63579058787715</v>
       </c>
       <c r="F15">
-        <v>39.76310924852582</v>
+        <v>39.97381750902846</v>
       </c>
       <c r="G15">
-        <v>13.98855899954954</v>
+        <v>22.35563641299765</v>
       </c>
       <c r="H15">
-        <v>6.857592067515989</v>
+        <v>12.81739858975188</v>
       </c>
       <c r="I15">
-        <v>9.375825671116278</v>
+        <v>18.02479476972606</v>
       </c>
       <c r="J15">
-        <v>4.041968224284287</v>
+        <v>7.571510432707333</v>
       </c>
       <c r="K15">
-        <v>15.50265190224431</v>
+        <v>10.08588022066494</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>10.19452784994813</v>
+        <v>18.63218494187125</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>17.08357608313944</v>
+        <v>10.33952387999146</v>
       </c>
       <c r="C16">
-        <v>9.60599231462052</v>
+        <v>6.410611927537757</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>31.67440049367823</v>
+        <v>26.3484495545835</v>
       </c>
       <c r="F16">
-        <v>38.68019301679755</v>
+        <v>39.80536573603958</v>
       </c>
       <c r="G16">
-        <v>14.02324301721648</v>
+        <v>22.46350732313422</v>
       </c>
       <c r="H16">
-        <v>6.952063492173749</v>
+        <v>12.85449561206944</v>
       </c>
       <c r="I16">
-        <v>9.601602588906976</v>
+        <v>18.09978930843939</v>
       </c>
       <c r="J16">
-        <v>4.082187498462721</v>
+        <v>7.58580604245733</v>
       </c>
       <c r="K16">
-        <v>15.07902143794556</v>
+        <v>9.873170042116977</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>10.33038129531579</v>
+        <v>18.70161205701893</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.75322725970694</v>
+        <v>10.17655685859831</v>
       </c>
       <c r="C17">
-        <v>9.445440101589098</v>
+        <v>6.332887473277046</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>31.0326333925051</v>
+        <v>26.17203615969654</v>
       </c>
       <c r="F17">
-        <v>38.01245160537257</v>
+        <v>39.70469004505246</v>
       </c>
       <c r="G17">
-        <v>14.05791749299091</v>
+        <v>22.5320975149943</v>
       </c>
       <c r="H17">
-        <v>7.011443134151565</v>
+        <v>12.87780647228855</v>
       </c>
       <c r="I17">
-        <v>9.742111433132406</v>
+        <v>18.14679415706179</v>
       </c>
       <c r="J17">
-        <v>4.107197587472135</v>
+        <v>7.594778347378478</v>
       </c>
       <c r="K17">
-        <v>14.81336030091686</v>
+        <v>9.740021221514425</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>10.41811855880803</v>
+        <v>18.74535730829115</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>16.56032157916865</v>
+        <v>10.08159790185772</v>
       </c>
       <c r="C18">
-        <v>9.351913943232869</v>
+        <v>6.287684938409043</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>30.65953115702284</v>
+        <v>26.07055211010046</v>
       </c>
       <c r="F18">
-        <v>37.62718649441344</v>
+        <v>39.64777793551252</v>
       </c>
       <c r="G18">
-        <v>14.0825632252736</v>
+        <v>22.57243222432831</v>
       </c>
       <c r="H18">
-        <v>7.046104130255913</v>
+        <v>12.89141768114797</v>
       </c>
       <c r="I18">
-        <v>9.823648776528943</v>
+        <v>18.17419744974448</v>
       </c>
       <c r="J18">
-        <v>4.121706810081847</v>
+        <v>7.600013505228419</v>
       </c>
       <c r="K18">
-        <v>14.65844203204796</v>
+        <v>9.662474811627922</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>10.47011950328664</v>
+        <v>18.77094225188439</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>16.49450898767801</v>
+        <v>10.04923792277135</v>
       </c>
       <c r="C19">
-        <v>9.320045567424682</v>
+        <v>6.272295687287663</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>30.53252263040145</v>
+        <v>26.03619203985236</v>
       </c>
       <c r="F19">
-        <v>37.49654251075343</v>
+        <v>39.62868054869548</v>
       </c>
       <c r="G19">
-        <v>14.09169425230682</v>
+        <v>22.58624021918387</v>
       </c>
       <c r="H19">
-        <v>7.057925455097294</v>
+        <v>12.89606115718682</v>
       </c>
       <c r="I19">
-        <v>9.851378352534446</v>
+        <v>18.1835388775379</v>
       </c>
       <c r="J19">
-        <v>4.12664072587823</v>
+        <v>7.601798852857167</v>
       </c>
       <c r="K19">
-        <v>14.60562647973083</v>
+        <v>9.636054989353168</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>10.48798294597285</v>
+        <v>18.77967764542727</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.78869327684743</v>
+        <v>10.19403214787103</v>
       </c>
       <c r="C20">
-        <v>9.462653541909496</v>
+        <v>6.341213095339731</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>31.10136197446867</v>
+        <v>26.19081809786371</v>
       </c>
       <c r="F20">
-        <v>38.08365915389823</v>
+        <v>39.71530460990019</v>
       </c>
       <c r="G20">
-        <v>14.05373468653914</v>
+        <v>22.52470444877639</v>
       </c>
       <c r="H20">
-        <v>7.0050692089211</v>
+        <v>12.87530394243093</v>
       </c>
       <c r="I20">
-        <v>9.727079154026541</v>
+        <v>18.14175240385226</v>
       </c>
       <c r="J20">
-        <v>4.10452238608067</v>
+        <v>7.593815520269549</v>
       </c>
       <c r="K20">
-        <v>14.84185964586114</v>
+        <v>9.754295109946584</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>10.40861801062076</v>
+        <v>18.74065668119193</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.74252249368574</v>
+        <v>10.66576371512473</v>
       </c>
       <c r="C21">
-        <v>9.927639849787679</v>
+        <v>6.566752508202045</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>32.96512454628777</v>
+        <v>26.70990494889617</v>
       </c>
       <c r="F21">
-        <v>40.04160605274087</v>
+        <v>40.01811962236652</v>
       </c>
       <c r="G21">
-        <v>13.98392461581091</v>
+        <v>22.32853615743727</v>
       </c>
       <c r="H21">
-        <v>6.833655762175176</v>
+        <v>12.80799170215859</v>
       </c>
       <c r="I21">
-        <v>9.318167613375405</v>
+        <v>18.00574080113748</v>
       </c>
       <c r="J21">
-        <v>4.031688356459071</v>
+        <v>7.567882051367489</v>
       </c>
       <c r="K21">
-        <v>15.61023471728238</v>
+        <v>10.13996521595011</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>10.1608791692676</v>
+        <v>18.6146171954426</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.34021160760209</v>
+        <v>10.96280073567897</v>
       </c>
       <c r="C22">
-        <v>10.22088671044321</v>
+        <v>6.709521645621243</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>34.15266527525704</v>
+        <v>27.04827542716474</v>
       </c>
       <c r="F22">
-        <v>41.30957611257205</v>
+        <v>40.22455420751788</v>
       </c>
       <c r="G22">
-        <v>13.9848183237607</v>
+        <v>22.20828190363477</v>
       </c>
       <c r="H22">
-        <v>6.726507763278486</v>
+        <v>12.76580694323655</v>
       </c>
       <c r="I22">
-        <v>9.057701693804892</v>
+        <v>17.92010920781791</v>
       </c>
       <c r="J22">
-        <v>3.985187070970117</v>
+        <v>7.551593711993809</v>
       </c>
       <c r="K22">
-        <v>16.09345181455364</v>
+        <v>10.38316554756458</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>10.0143932205481</v>
+        <v>18.53602272684428</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.02355802190547</v>
+        <v>10.8053131543952</v>
       </c>
       <c r="C23">
-        <v>10.06535469084376</v>
+        <v>6.633756223803287</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>33.51987394797475</v>
+        <v>26.8677967672269</v>
       </c>
       <c r="F23">
-        <v>40.63393874808359</v>
+        <v>40.11361212038782</v>
       </c>
       <c r="G23">
-        <v>13.97986537391779</v>
+        <v>22.27173192554458</v>
       </c>
       <c r="H23">
-        <v>6.783228816375206</v>
+        <v>12.78815651595105</v>
       </c>
       <c r="I23">
-        <v>9.196075491266537</v>
+        <v>17.96551466396696</v>
       </c>
       <c r="J23">
-        <v>4.009905184065872</v>
+        <v>7.560226794923405</v>
       </c>
       <c r="K23">
-        <v>15.83728801854757</v>
+        <v>10.25418798791854</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>10.09107381387961</v>
+        <v>18.57762395660592</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.77266838525016</v>
+        <v>10.18613551190611</v>
       </c>
       <c r="C24">
-        <v>9.454875151832006</v>
+        <v>6.337450691827342</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>31.07030268413277</v>
+        <v>26.18232696719434</v>
       </c>
       <c r="F24">
-        <v>38.05147048089633</v>
+        <v>39.71050274726306</v>
       </c>
       <c r="G24">
-        <v>14.05561111218356</v>
+        <v>22.52804404745404</v>
       </c>
       <c r="H24">
-        <v>7.007949235750749</v>
+        <v>12.87643468359209</v>
       </c>
       <c r="I24">
-        <v>9.733872893327691</v>
+        <v>18.14403059796789</v>
       </c>
       <c r="J24">
-        <v>4.105731437806433</v>
+        <v>7.594250574956593</v>
       </c>
       <c r="K24">
-        <v>14.82898189989666</v>
+        <v>9.747844988317432</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>10.41290836909498</v>
+        <v>18.74278047906702</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.31259408425189</v>
+        <v>9.471742947419029</v>
       </c>
       <c r="C25">
-        <v>8.751389751006231</v>
+        <v>5.998975749987812</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>28.27639196514242</v>
+        <v>25.44280242791172</v>
       </c>
       <c r="F25">
-        <v>35.22129332389331</v>
+        <v>39.31384082374133</v>
       </c>
       <c r="G25">
-        <v>14.31421370685295</v>
+        <v>22.83824645152026</v>
       </c>
       <c r="H25">
-        <v>7.26960469333062</v>
+        <v>12.97943675077759</v>
       </c>
       <c r="I25">
-        <v>10.34143713214355</v>
+        <v>18.35064094092346</v>
       </c>
       <c r="J25">
-        <v>4.213846378530047</v>
+        <v>7.633801877723469</v>
       </c>
       <c r="K25">
-        <v>13.66058972069791</v>
+        <v>9.165096910469202</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>10.81805339028496</v>
+        <v>18.93713046528601</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_70/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_70/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.908234419588917</v>
+        <v>14.14193305862798</v>
       </c>
       <c r="C2">
-        <v>5.734832280251772</v>
+        <v>8.195880837819427</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>24.90221787668539</v>
+        <v>26.090203738131</v>
       </c>
       <c r="F2">
-        <v>39.0560475493529</v>
+        <v>33.10805192618416</v>
       </c>
       <c r="G2">
-        <v>23.09524334873279</v>
+        <v>14.63133798375549</v>
       </c>
       <c r="H2">
-        <v>13.06200285466351</v>
+        <v>7.477332455544193</v>
       </c>
       <c r="I2">
-        <v>18.51494441848695</v>
+        <v>10.81129522181473</v>
       </c>
       <c r="J2">
-        <v>7.66539702960366</v>
+        <v>4.297601315967384</v>
       </c>
       <c r="K2">
-        <v>8.706436435789486</v>
+        <v>12.7319580340415</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.09416426328727</v>
+        <v>11.15849731237183</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.50461753687941</v>
+        <v>13.28906111942908</v>
       </c>
       <c r="C3">
-        <v>5.547308822190931</v>
+        <v>7.796909101685774</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.54041403265173</v>
+        <v>24.53048724308339</v>
       </c>
       <c r="F3">
-        <v>38.90334412245793</v>
+        <v>31.66423321421973</v>
       </c>
       <c r="G3">
-        <v>23.28705142676716</v>
+        <v>14.9129439811617</v>
       </c>
       <c r="H3">
-        <v>13.12217251779947</v>
+        <v>7.62693136235903</v>
       </c>
       <c r="I3">
-        <v>18.63393722250179</v>
+        <v>11.14347797969404</v>
       </c>
       <c r="J3">
-        <v>7.68836336948521</v>
+        <v>4.356991662043123</v>
       </c>
       <c r="K3">
-        <v>8.378345038566485</v>
+        <v>12.06099364654428</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>19.20928200101305</v>
+        <v>11.4122963241697</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.246790415916285</v>
+        <v>12.73621399731595</v>
       </c>
       <c r="C4">
-        <v>5.428286289247843</v>
+        <v>7.541270524210029</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>24.3212268511024</v>
+        <v>23.53569942182765</v>
       </c>
       <c r="F4">
-        <v>38.82061667655109</v>
+        <v>30.77485886213125</v>
       </c>
       <c r="G4">
-        <v>23.41345846946988</v>
+        <v>15.11490227281758</v>
       </c>
       <c r="H4">
-        <v>13.16120139738486</v>
+        <v>7.722980643084644</v>
       </c>
       <c r="I4">
-        <v>18.71078442813988</v>
+        <v>11.3541818025271</v>
       </c>
       <c r="J4">
-        <v>7.703234902668191</v>
+        <v>4.39476877357193</v>
       </c>
       <c r="K4">
-        <v>8.168877374069588</v>
+        <v>11.62899908197432</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>19.28425423376626</v>
+        <v>11.57861442452569</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.139333991487408</v>
+        <v>12.50363039678883</v>
       </c>
       <c r="C5">
-        <v>5.378860674170996</v>
+        <v>7.434493713367429</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>24.23275944726774</v>
+        <v>23.12127781813703</v>
       </c>
       <c r="F5">
-        <v>38.78970312229546</v>
+        <v>30.41221640821842</v>
       </c>
       <c r="G5">
-        <v>23.46713242661399</v>
+        <v>15.20396995705376</v>
       </c>
       <c r="H5">
-        <v>13.17763093657468</v>
+        <v>7.763156216945971</v>
       </c>
       <c r="I5">
-        <v>18.74305416181851</v>
+        <v>11.44173769522089</v>
       </c>
       <c r="J5">
-        <v>7.709489318918407</v>
+        <v>4.41049509540154</v>
       </c>
       <c r="K5">
-        <v>8.081586531448879</v>
+        <v>11.44802383331046</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>19.31588465906108</v>
+        <v>11.64890795507555</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.121350650040188</v>
+        <v>12.46457116422303</v>
       </c>
       <c r="C6">
-        <v>5.370599503115963</v>
+        <v>7.416609015847333</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>24.21812417230191</v>
+        <v>23.05192784345802</v>
       </c>
       <c r="F6">
-        <v>38.78473960447521</v>
+        <v>30.3520028029519</v>
       </c>
       <c r="G6">
-        <v>23.47617525492986</v>
+        <v>15.2191533489998</v>
       </c>
       <c r="H6">
-        <v>13.18039077873686</v>
+        <v>7.769889300272628</v>
       </c>
       <c r="I6">
-        <v>18.7484701993297</v>
+        <v>11.45637847563291</v>
       </c>
       <c r="J6">
-        <v>7.710539600516101</v>
+        <v>4.413126545951723</v>
       </c>
       <c r="K6">
-        <v>8.066978017071582</v>
+        <v>11.41767841752496</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>19.32120201533074</v>
+        <v>11.66072897599604</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.245350716858681</v>
+        <v>12.73310675567264</v>
       </c>
       <c r="C7">
-        <v>5.427623380934434</v>
+        <v>7.539840912246897</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>24.32003015216562</v>
+        <v>23.53014652890864</v>
       </c>
       <c r="F7">
-        <v>38.82018840539271</v>
+        <v>30.76996830003441</v>
       </c>
       <c r="G7">
-        <v>23.41417359359479</v>
+        <v>15.1160767503728</v>
       </c>
       <c r="H7">
-        <v>13.16142084531343</v>
+        <v>7.723518299894552</v>
       </c>
       <c r="I7">
-        <v>18.71121576410338</v>
+        <v>11.35535576099862</v>
       </c>
       <c r="J7">
-        <v>7.703318465164559</v>
+        <v>4.39497951772262</v>
       </c>
       <c r="K7">
-        <v>8.167707837835314</v>
+        <v>11.62657821463867</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>19.28467644535808</v>
+        <v>11.57955238142574</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.771213727039271</v>
+        <v>13.85394009688346</v>
       </c>
       <c r="C8">
-        <v>5.671010346177006</v>
+        <v>8.060573233082266</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>24.77691852272099</v>
+        <v>25.56026950233259</v>
       </c>
       <c r="F8">
-        <v>39.001121207982</v>
+        <v>32.6111017285847</v>
       </c>
       <c r="G8">
-        <v>23.15958053579977</v>
+        <v>14.72207203230339</v>
       </c>
       <c r="H8">
-        <v>13.08231720426015</v>
+        <v>7.528030457058558</v>
       </c>
       <c r="I8">
-        <v>18.55518877758743</v>
+        <v>10.92442956265609</v>
       </c>
       <c r="J8">
-        <v>7.673156286676074</v>
+        <v>4.317808222370168</v>
       </c>
       <c r="K8">
-        <v>8.595022619645082</v>
+        <v>12.5048177748379</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.13296657346037</v>
+        <v>11.24375533438097</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.718403317534646</v>
+        <v>15.8192695629853</v>
       </c>
       <c r="C9">
-        <v>6.115405494805129</v>
+        <v>8.994286565995175</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>25.69157923777959</v>
+        <v>29.23775718384848</v>
       </c>
       <c r="F9">
-        <v>39.44222561581658</v>
+        <v>36.17993990042812</v>
       </c>
       <c r="G9">
-        <v>22.72928500890836</v>
+        <v>14.20572618243709</v>
       </c>
       <c r="H9">
-        <v>12.94369786071288</v>
+        <v>7.179035949623702</v>
       </c>
       <c r="I9">
-        <v>18.27915844547184</v>
+        <v>10.13322646167366</v>
       </c>
       <c r="J9">
-        <v>7.620096133705443</v>
+        <v>4.17678778251643</v>
       </c>
       <c r="K9">
-        <v>9.366132423431003</v>
+        <v>14.0648813825142</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>18.86949883738896</v>
+        <v>10.67456098015595</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10.3579522645164</v>
+        <v>17.12087882469163</v>
       </c>
       <c r="C10">
-        <v>6.41941267785513</v>
+        <v>9.624151891007319</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>26.36857484659921</v>
+        <v>31.74709208699474</v>
       </c>
       <c r="F10">
-        <v>39.81698714206543</v>
+        <v>38.7562204532156</v>
       </c>
       <c r="G10">
-        <v>22.45580070434747</v>
+        <v>14.01993964245279</v>
       </c>
       <c r="H10">
-        <v>12.85186323154614</v>
+        <v>6.945357751570898</v>
       </c>
       <c r="I10">
-        <v>18.09447546568441</v>
+        <v>9.585668220216931</v>
       </c>
       <c r="J10">
-        <v>7.584792328307165</v>
+        <v>4.079350464566232</v>
       </c>
       <c r="K10">
-        <v>9.888231751830157</v>
+        <v>15.10904787084007</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>18.69667786756109</v>
+        <v>10.32058368543234</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.63584765781438</v>
+        <v>17.68221528462983</v>
       </c>
       <c r="C11">
-        <v>6.552404954102951</v>
+        <v>9.89812832973813</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>26.67630885630599</v>
+        <v>32.84641302926456</v>
       </c>
       <c r="F11">
-        <v>39.99799540779984</v>
+        <v>39.91540137973843</v>
       </c>
       <c r="G11">
-        <v>22.34078541206623</v>
+        <v>13.9858082700791</v>
       </c>
       <c r="H11">
-        <v>12.81224802439765</v>
+        <v>6.844484771037099</v>
       </c>
       <c r="I11">
-        <v>18.01436398930595</v>
+        <v>9.344275901393734</v>
       </c>
       <c r="J11">
-        <v>7.569523950455189</v>
+        <v>4.036343735160972</v>
       </c>
       <c r="K11">
-        <v>10.11548644326757</v>
+        <v>15.56154898318486</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>18.62256417476247</v>
+        <v>10.17606202682215</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.73915092279365</v>
+        <v>17.89037122578579</v>
       </c>
       <c r="C12">
-        <v>6.601973228764582</v>
+        <v>10.00005113044594</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>26.79269787609531</v>
+        <v>33.25665297074289</v>
       </c>
       <c r="F12">
-        <v>40.06800637720949</v>
+        <v>40.35236193877761</v>
       </c>
       <c r="G12">
-        <v>22.29859502985593</v>
+        <v>13.98081325941795</v>
       </c>
       <c r="H12">
-        <v>12.79755677717737</v>
+        <v>6.807118517139715</v>
       </c>
       <c r="I12">
-        <v>17.98458690900094</v>
+        <v>9.254023095856816</v>
       </c>
       <c r="J12">
-        <v>7.563855529519954</v>
+        <v>4.020246740660138</v>
       </c>
       <c r="K12">
-        <v>10.20002594868309</v>
+        <v>15.72964868916072</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>18.59514729739691</v>
+        <v>10.12395773020355</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.716989313589</v>
+        <v>17.845736947113</v>
       </c>
       <c r="C13">
-        <v>6.591333530709149</v>
+        <v>9.978181703146797</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>26.76763949213143</v>
+        <v>33.16856877464719</v>
       </c>
       <c r="F13">
-        <v>40.05286379000319</v>
+        <v>40.25834525226623</v>
       </c>
       <c r="G13">
-        <v>22.30762064208054</v>
+        <v>13.98152568791947</v>
       </c>
       <c r="H13">
-        <v>12.80070701366897</v>
+        <v>6.815128087188449</v>
       </c>
       <c r="I13">
-        <v>17.99097508278449</v>
+        <v>9.273408198317789</v>
       </c>
       <c r="J13">
-        <v>7.565071289534925</v>
+        <v>4.023705131189888</v>
       </c>
       <c r="K13">
-        <v>10.18188693531667</v>
+        <v>15.69359025090362</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>18.60102316266834</v>
+        <v>10.1350583760438</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.64438543414428</v>
+        <v>17.69942867293438</v>
       </c>
       <c r="C14">
-        <v>6.556499020941773</v>
+        <v>9.906550271581972</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>26.68588773518844</v>
+        <v>32.88028470082056</v>
       </c>
       <c r="F14">
-        <v>40.00372612853665</v>
+        <v>39.95139106218791</v>
       </c>
       <c r="G14">
-        <v>22.33728698605949</v>
+        <v>13.98523455999323</v>
       </c>
       <c r="H14">
-        <v>12.8110331534129</v>
+        <v>6.841393624024382</v>
       </c>
       <c r="I14">
-        <v>18.01190300923689</v>
+        <v>9.336827206709355</v>
       </c>
       <c r="J14">
-        <v>7.569055336169815</v>
+        <v>4.035015646557123</v>
       </c>
       <c r="K14">
-        <v>10.12247218386698</v>
+        <v>15.57544390190067</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>18.62029557267198</v>
+        <v>10.17172127244922</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.59966069303895</v>
+        <v>17.60923687608779</v>
       </c>
       <c r="C15">
-        <v>6.535057760521314</v>
+        <v>9.862435641917104</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>26.63579058787715</v>
+        <v>32.70291584431418</v>
       </c>
       <c r="F15">
-        <v>39.97381750902846</v>
+        <v>39.76310924852583</v>
       </c>
       <c r="G15">
-        <v>22.35563641299765</v>
+        <v>13.9885589995497</v>
       </c>
       <c r="H15">
-        <v>12.81739858975188</v>
+        <v>6.857592067515996</v>
       </c>
       <c r="I15">
-        <v>18.02479476972606</v>
+        <v>9.375825671116422</v>
       </c>
       <c r="J15">
-        <v>7.571510432707333</v>
+        <v>4.041968224284258</v>
       </c>
       <c r="K15">
-        <v>10.08588022066494</v>
+        <v>15.50265190224428</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>18.63218494187125</v>
+        <v>10.19452784994821</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>10.33952387999146</v>
+        <v>17.08357608313939</v>
       </c>
       <c r="C16">
-        <v>6.410611927537757</v>
+        <v>9.60599231462052</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>26.3484495545835</v>
+        <v>31.67440049367821</v>
       </c>
       <c r="F16">
-        <v>39.80536573603958</v>
+        <v>38.68019301679756</v>
       </c>
       <c r="G16">
-        <v>22.46350732313422</v>
+        <v>14.02324301721664</v>
       </c>
       <c r="H16">
-        <v>12.85449561206944</v>
+        <v>6.952063492173793</v>
       </c>
       <c r="I16">
-        <v>18.09978930843939</v>
+        <v>9.601602588907165</v>
       </c>
       <c r="J16">
-        <v>7.58580604245733</v>
+        <v>4.082187498462782</v>
       </c>
       <c r="K16">
-        <v>9.873170042116977</v>
+        <v>15.07902143794552</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>18.70161205701893</v>
+        <v>10.33038129531591</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>10.17655685859831</v>
+        <v>16.75322725970699</v>
       </c>
       <c r="C17">
-        <v>6.332887473277046</v>
+        <v>9.445440101589121</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>26.17203615969654</v>
+        <v>31.03263339250508</v>
       </c>
       <c r="F17">
-        <v>39.70469004505246</v>
+        <v>38.01245160537262</v>
       </c>
       <c r="G17">
-        <v>22.5320975149943</v>
+        <v>14.05791749299092</v>
       </c>
       <c r="H17">
-        <v>12.87780647228855</v>
+        <v>7.011443134151636</v>
       </c>
       <c r="I17">
-        <v>18.14679415706179</v>
+        <v>9.742111433132509</v>
       </c>
       <c r="J17">
-        <v>7.594778347378478</v>
+        <v>4.107197587472076</v>
       </c>
       <c r="K17">
-        <v>9.740021221514425</v>
+        <v>14.81336030091688</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>18.74535730829115</v>
+        <v>10.41811855880812</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>10.08159790185772</v>
+        <v>16.56032157916869</v>
       </c>
       <c r="C18">
-        <v>6.287684938409043</v>
+        <v>9.351913943232908</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>26.07055211010046</v>
+        <v>30.65953115702283</v>
       </c>
       <c r="F18">
-        <v>39.64777793551252</v>
+        <v>37.62718649441351</v>
       </c>
       <c r="G18">
-        <v>22.57243222432831</v>
+        <v>14.08256322527349</v>
       </c>
       <c r="H18">
-        <v>12.89141768114797</v>
+        <v>7.046104130255859</v>
       </c>
       <c r="I18">
-        <v>18.17419744974448</v>
+        <v>9.823648776528927</v>
       </c>
       <c r="J18">
-        <v>7.600013505228419</v>
+        <v>4.121706810081848</v>
       </c>
       <c r="K18">
-        <v>9.662474811627922</v>
+        <v>14.65844203204801</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>18.77094225188439</v>
+        <v>10.47011950328658</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>10.04923792277135</v>
+        <v>16.49450898767808</v>
       </c>
       <c r="C19">
-        <v>6.272295687287663</v>
+        <v>9.320045567424717</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>26.03619203985236</v>
+        <v>30.53252263040143</v>
       </c>
       <c r="F19">
-        <v>39.62868054869548</v>
+        <v>37.49654251075343</v>
       </c>
       <c r="G19">
-        <v>22.58624021918387</v>
+        <v>14.09169425230683</v>
       </c>
       <c r="H19">
-        <v>12.89606115718682</v>
+        <v>7.057925455097243</v>
       </c>
       <c r="I19">
-        <v>18.1835388775379</v>
+        <v>9.851378352534386</v>
       </c>
       <c r="J19">
-        <v>7.601798852857167</v>
+        <v>4.126640725878201</v>
       </c>
       <c r="K19">
-        <v>9.636054989353168</v>
+        <v>14.60562647973089</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>18.77967764542727</v>
+        <v>10.48798294597283</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.19403214787103</v>
+        <v>16.78869327684743</v>
       </c>
       <c r="C20">
-        <v>6.341213095339731</v>
+        <v>9.462653541909525</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>26.19081809786371</v>
+        <v>31.10136197446868</v>
       </c>
       <c r="F20">
-        <v>39.71530460990019</v>
+        <v>38.08365915389824</v>
       </c>
       <c r="G20">
-        <v>22.52470444877639</v>
+        <v>14.05373468653892</v>
       </c>
       <c r="H20">
-        <v>12.87530394243093</v>
+        <v>7.005069208920972</v>
       </c>
       <c r="I20">
-        <v>18.14175240385226</v>
+        <v>9.727079154026413</v>
       </c>
       <c r="J20">
-        <v>7.593815520269549</v>
+        <v>4.104522386080608</v>
       </c>
       <c r="K20">
-        <v>9.754295109946584</v>
+        <v>14.84185964586117</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>18.74065668119193</v>
+        <v>10.40861801062062</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.66576371512473</v>
+        <v>17.7425224936858</v>
       </c>
       <c r="C21">
-        <v>6.566752508202045</v>
+        <v>9.927639849787601</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>26.70990494889617</v>
+        <v>32.96512454628776</v>
       </c>
       <c r="F21">
-        <v>40.01811962236652</v>
+        <v>40.04160605274091</v>
       </c>
       <c r="G21">
-        <v>22.32853615743727</v>
+        <v>13.98392461581082</v>
       </c>
       <c r="H21">
-        <v>12.80799170215859</v>
+        <v>6.833655762175129</v>
       </c>
       <c r="I21">
-        <v>18.00574080113748</v>
+        <v>9.318167613375293</v>
       </c>
       <c r="J21">
-        <v>7.567882051367489</v>
+        <v>4.031688356459072</v>
       </c>
       <c r="K21">
-        <v>10.13996521595011</v>
+        <v>15.61023471728242</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>18.6146171954426</v>
+        <v>10.16087916926752</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.96280073567897</v>
+        <v>18.34021160760204</v>
       </c>
       <c r="C22">
-        <v>6.709521645621243</v>
+        <v>10.22088671044323</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>27.04827542716474</v>
+        <v>34.15266527525699</v>
       </c>
       <c r="F22">
-        <v>40.22455420751788</v>
+        <v>41.30957611257203</v>
       </c>
       <c r="G22">
-        <v>22.20828190363477</v>
+        <v>13.98481832376079</v>
       </c>
       <c r="H22">
-        <v>12.76580694323655</v>
+        <v>6.726507763278537</v>
       </c>
       <c r="I22">
-        <v>17.92010920781791</v>
+        <v>9.057701693805013</v>
       </c>
       <c r="J22">
-        <v>7.551593711993809</v>
+        <v>3.985187070970175</v>
       </c>
       <c r="K22">
-        <v>10.38316554756458</v>
+        <v>16.09345181455358</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>18.53602272684428</v>
+        <v>10.01439322054817</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.8053131543952</v>
+        <v>18.02355802190543</v>
       </c>
       <c r="C23">
-        <v>6.633756223803287</v>
+        <v>10.06535469084389</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>26.8677967672269</v>
+        <v>33.51987394797475</v>
       </c>
       <c r="F23">
-        <v>40.11361212038782</v>
+        <v>40.63393874808359</v>
       </c>
       <c r="G23">
-        <v>22.27173192554458</v>
+        <v>13.9798653739179</v>
       </c>
       <c r="H23">
-        <v>12.78815651595105</v>
+        <v>6.783228816375081</v>
       </c>
       <c r="I23">
-        <v>17.96551466396696</v>
+        <v>9.196075491266575</v>
       </c>
       <c r="J23">
-        <v>7.560226794923405</v>
+        <v>4.009905184065845</v>
       </c>
       <c r="K23">
-        <v>10.25418798791854</v>
+        <v>15.83728801854759</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>18.57762395660592</v>
+        <v>10.0910738138796</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>10.18613551190611</v>
+        <v>16.77266838525019</v>
       </c>
       <c r="C24">
-        <v>6.337450691827342</v>
+        <v>9.454875151832125</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>26.18232696719434</v>
+        <v>31.07030268413274</v>
       </c>
       <c r="F24">
-        <v>39.71050274726306</v>
+        <v>38.05147048089634</v>
       </c>
       <c r="G24">
-        <v>22.52804404745404</v>
+        <v>14.05561111218347</v>
       </c>
       <c r="H24">
-        <v>12.87643468359209</v>
+        <v>7.00794923575063</v>
       </c>
       <c r="I24">
-        <v>18.14403059796789</v>
+        <v>9.733872893327609</v>
       </c>
       <c r="J24">
-        <v>7.594250574956593</v>
+        <v>4.105731437806435</v>
       </c>
       <c r="K24">
-        <v>9.747844988317432</v>
+        <v>14.82898189989668</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>18.74278047906702</v>
+        <v>10.41290836909486</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.471742947419029</v>
+        <v>15.31259408425186</v>
       </c>
       <c r="C25">
-        <v>5.998975749987812</v>
+        <v>8.751389751006386</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>25.44280242791172</v>
+        <v>28.2763919651424</v>
       </c>
       <c r="F25">
-        <v>39.31384082374133</v>
+        <v>35.22129332389328</v>
       </c>
       <c r="G25">
-        <v>22.83824645152026</v>
+        <v>14.3142137068526</v>
       </c>
       <c r="H25">
-        <v>12.97943675077759</v>
+        <v>7.269604693330556</v>
       </c>
       <c r="I25">
-        <v>18.35064094092346</v>
+        <v>10.34143713214336</v>
       </c>
       <c r="J25">
-        <v>7.633801877723469</v>
+        <v>4.213846378529977</v>
       </c>
       <c r="K25">
-        <v>9.165096910469202</v>
+        <v>13.66058972069794</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>18.93713046528601</v>
+        <v>10.81805339028471</v>
       </c>
     </row>
   </sheetData>
